--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07653468669186</v>
+        <v>1.239942333333333</v>
       </c>
       <c r="N2">
-        <v>1.07653468669186</v>
+        <v>3.719827</v>
       </c>
       <c r="O2">
-        <v>0.02643840344082968</v>
+        <v>0.02873264962564676</v>
       </c>
       <c r="P2">
-        <v>0.02643840344082968</v>
+        <v>0.02873264962564676</v>
       </c>
       <c r="Q2">
-        <v>156.4666366442733</v>
+        <v>201.365763253873</v>
       </c>
       <c r="R2">
-        <v>156.4666366442733</v>
+        <v>1812.291869284857</v>
       </c>
       <c r="S2">
-        <v>0.009969173371123208</v>
+        <v>0.01123553394630589</v>
       </c>
       <c r="T2">
-        <v>0.009969173371123208</v>
+        <v>0.01123553394630588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.6705568373673</v>
+        <v>27.025359</v>
       </c>
       <c r="N3">
-        <v>26.6705568373673</v>
+        <v>81.076077</v>
       </c>
       <c r="O3">
-        <v>0.654996954928333</v>
+        <v>0.6262470038157576</v>
       </c>
       <c r="P3">
-        <v>0.654996954928333</v>
+        <v>0.6262470038157575</v>
       </c>
       <c r="Q3">
-        <v>3876.37516687584</v>
+        <v>4388.899302772623</v>
       </c>
       <c r="R3">
-        <v>3876.37516687584</v>
+        <v>39500.0937249536</v>
       </c>
       <c r="S3">
-        <v>0.2469808063808489</v>
+        <v>0.2448858550053026</v>
       </c>
       <c r="T3">
-        <v>0.2469808063808489</v>
+        <v>0.2448858550053025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.9715051605399</v>
+        <v>0.050758</v>
       </c>
       <c r="N4">
-        <v>12.9715051605399</v>
+        <v>0.152274</v>
       </c>
       <c r="O4">
-        <v>0.3185646416308373</v>
+        <v>0.001176193271648315</v>
       </c>
       <c r="P4">
-        <v>0.3185646416308373</v>
+        <v>0.001176193271648314</v>
       </c>
       <c r="Q4">
-        <v>1885.315735548105</v>
+        <v>8.243063517125998</v>
       </c>
       <c r="R4">
-        <v>1885.315735548105</v>
+        <v>74.18757165413399</v>
       </c>
       <c r="S4">
-        <v>0.1201217066467418</v>
+        <v>0.0004599352862753516</v>
       </c>
       <c r="T4">
-        <v>0.1201217066467418</v>
+        <v>0.0004599352862753515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07653468669186</v>
+        <v>14.838413</v>
       </c>
       <c r="N5">
-        <v>1.07653468669186</v>
+        <v>44.51523899999999</v>
       </c>
       <c r="O5">
-        <v>0.02643840344082968</v>
+        <v>0.3438441532869475</v>
       </c>
       <c r="P5">
-        <v>0.02643840344082968</v>
+        <v>0.3438441532869475</v>
       </c>
       <c r="Q5">
-        <v>70.38941642368593</v>
+        <v>2409.747839795661</v>
       </c>
       <c r="R5">
-        <v>70.38941642368593</v>
+        <v>21687.73055816094</v>
       </c>
       <c r="S5">
-        <v>0.004484817408169139</v>
+        <v>0.1344558440251171</v>
       </c>
       <c r="T5">
-        <v>0.004484817408169139</v>
+        <v>0.1344558440251171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.6705568373673</v>
+        <v>1.239942333333333</v>
       </c>
       <c r="N6">
-        <v>26.6705568373673</v>
+        <v>3.719827</v>
       </c>
       <c r="O6">
-        <v>0.654996954928333</v>
+        <v>0.02873264962564676</v>
       </c>
       <c r="P6">
-        <v>0.654996954928333</v>
+        <v>0.02873264962564676</v>
       </c>
       <c r="Q6">
-        <v>1743.859212977114</v>
+        <v>81.11375978530423</v>
       </c>
       <c r="R6">
-        <v>1743.859212977114</v>
+        <v>730.0238380677379</v>
       </c>
       <c r="S6">
-        <v>0.111108893255779</v>
+        <v>0.004525875634733841</v>
       </c>
       <c r="T6">
-        <v>0.111108893255779</v>
+        <v>0.00452587563473384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9715051605399</v>
+        <v>27.025359</v>
       </c>
       <c r="N7">
-        <v>12.9715051605399</v>
+        <v>81.076077</v>
       </c>
       <c r="O7">
-        <v>0.3185646416308373</v>
+        <v>0.6262470038157576</v>
       </c>
       <c r="P7">
-        <v>0.3185646416308373</v>
+        <v>0.6262470038157575</v>
       </c>
       <c r="Q7">
-        <v>848.1442257963967</v>
+        <v>1767.927764950582</v>
       </c>
       <c r="R7">
-        <v>848.1442257963967</v>
+        <v>15911.34988455524</v>
       </c>
       <c r="S7">
-        <v>0.05403897605279554</v>
+        <v>0.09864443734993718</v>
       </c>
       <c r="T7">
-        <v>0.05403897605279554</v>
+        <v>0.09864443734993716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.07653468669186</v>
+        <v>0.050758</v>
       </c>
       <c r="N8">
-        <v>1.07653468669186</v>
+        <v>0.152274</v>
       </c>
       <c r="O8">
-        <v>0.02643840344082968</v>
+        <v>0.001176193271648315</v>
       </c>
       <c r="P8">
-        <v>0.02643840344082968</v>
+        <v>0.001176193271648314</v>
       </c>
       <c r="Q8">
-        <v>122.2482441089539</v>
+        <v>3.320454595750667</v>
       </c>
       <c r="R8">
-        <v>122.2482441089539</v>
+        <v>29.884091361756</v>
       </c>
       <c r="S8">
-        <v>0.007788970006483216</v>
+        <v>0.0001852702253097956</v>
       </c>
       <c r="T8">
-        <v>0.007788970006483216</v>
+        <v>0.0001852702253097955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.6705568373673</v>
+        <v>14.838413</v>
       </c>
       <c r="N9">
-        <v>26.6705568373673</v>
+        <v>44.51523899999999</v>
       </c>
       <c r="O9">
-        <v>0.654996954928333</v>
+        <v>0.3438441532869475</v>
       </c>
       <c r="P9">
-        <v>0.654996954928333</v>
+        <v>0.3438441532869475</v>
       </c>
       <c r="Q9">
-        <v>3028.633246175606</v>
+        <v>970.6898742956072</v>
       </c>
       <c r="R9">
-        <v>3028.633246175606</v>
+        <v>8736.208868660466</v>
       </c>
       <c r="S9">
-        <v>0.1929674629442951</v>
+        <v>0.05416123802651403</v>
       </c>
       <c r="T9">
-        <v>0.1929674629442951</v>
+        <v>0.05416123802651403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9715051605399</v>
+        <v>1.239942333333333</v>
       </c>
       <c r="N10">
-        <v>12.9715051605399</v>
+        <v>3.719827</v>
       </c>
       <c r="O10">
-        <v>0.3185646416308373</v>
+        <v>0.02873264962564676</v>
       </c>
       <c r="P10">
-        <v>0.3185646416308373</v>
+        <v>0.02873264962564676</v>
       </c>
       <c r="Q10">
-        <v>1473.007557424046</v>
+        <v>156.6133260329345</v>
       </c>
       <c r="R10">
-        <v>1473.007557424046</v>
+        <v>1409.51993429641</v>
       </c>
       <c r="S10">
-        <v>0.09385175032758329</v>
+        <v>0.008738498107388977</v>
       </c>
       <c r="T10">
-        <v>0.09385175032758329</v>
+        <v>0.008738498107388977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.07653468669186</v>
+        <v>27.025359</v>
       </c>
       <c r="N11">
-        <v>1.07653468669186</v>
+        <v>81.076077</v>
       </c>
       <c r="O11">
-        <v>0.02643840344082968</v>
+        <v>0.6262470038157576</v>
       </c>
       <c r="P11">
-        <v>0.02643840344082968</v>
+        <v>0.6262470038157575</v>
       </c>
       <c r="Q11">
-        <v>65.84766630418002</v>
+        <v>3413.49048777599</v>
       </c>
       <c r="R11">
-        <v>65.84766630418002</v>
+        <v>30721.41438998391</v>
       </c>
       <c r="S11">
-        <v>0.00419544265505412</v>
+        <v>0.1904613159211498</v>
       </c>
       <c r="T11">
-        <v>0.00419544265505412</v>
+        <v>0.1904613159211498</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>26.6705568373673</v>
+        <v>0.050758</v>
       </c>
       <c r="N12">
-        <v>26.6705568373673</v>
+        <v>0.152274</v>
       </c>
       <c r="O12">
-        <v>0.654996954928333</v>
+        <v>0.001176193271648315</v>
       </c>
       <c r="P12">
-        <v>0.654996954928333</v>
+        <v>0.001176193271648314</v>
       </c>
       <c r="Q12">
-        <v>1631.339843001557</v>
+        <v>6.411087829713333</v>
       </c>
       <c r="R12">
-        <v>1631.339843001557</v>
+        <v>57.69979046742</v>
       </c>
       <c r="S12">
-        <v>0.1039397923474101</v>
+        <v>0.0003577171897522517</v>
       </c>
       <c r="T12">
-        <v>0.1039397923474101</v>
+        <v>0.0003577171897522517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9715051605399</v>
+        <v>14.838413</v>
       </c>
       <c r="N13">
-        <v>12.9715051605399</v>
+        <v>44.51523899999999</v>
       </c>
       <c r="O13">
-        <v>0.3185646416308373</v>
+        <v>0.3438441532869475</v>
       </c>
       <c r="P13">
-        <v>0.3185646416308373</v>
+        <v>0.3438441532869475</v>
       </c>
       <c r="Q13">
-        <v>793.4192495914112</v>
+        <v>1874.194589947596</v>
       </c>
       <c r="R13">
-        <v>793.4192495914112</v>
+        <v>16867.75130952837</v>
       </c>
       <c r="S13">
-        <v>0.05055220860371674</v>
+        <v>0.1045737696273154</v>
       </c>
       <c r="T13">
-        <v>0.05055220860371674</v>
+        <v>0.1045737696273155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>61.180387</v>
+      </c>
+      <c r="H14">
+        <v>183.541161</v>
+      </c>
+      <c r="I14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.239942333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.719827</v>
+      </c>
+      <c r="O14">
+        <v>0.02873264962564676</v>
+      </c>
+      <c r="P14">
+        <v>0.02873264962564676</v>
+      </c>
+      <c r="Q14">
+        <v>75.86015181101632</v>
+      </c>
+      <c r="R14">
+        <v>682.7413662991469</v>
+      </c>
+      <c r="S14">
+        <v>0.004232741937218061</v>
+      </c>
+      <c r="T14">
+        <v>0.00423274193721806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>61.180387</v>
+      </c>
+      <c r="H15">
+        <v>183.541161</v>
+      </c>
+      <c r="I15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.025359</v>
+      </c>
+      <c r="N15">
+        <v>81.076077</v>
+      </c>
+      <c r="O15">
+        <v>0.6262470038157576</v>
+      </c>
+      <c r="P15">
+        <v>0.6262470038157575</v>
+      </c>
+      <c r="Q15">
+        <v>1653.421922433933</v>
+      </c>
+      <c r="R15">
+        <v>14880.7973019054</v>
+      </c>
+      <c r="S15">
+        <v>0.092255395539368</v>
+      </c>
+      <c r="T15">
+        <v>0.092255395539368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>61.180387</v>
+      </c>
+      <c r="H16">
+        <v>183.541161</v>
+      </c>
+      <c r="I16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.050758</v>
+      </c>
+      <c r="N16">
+        <v>0.152274</v>
+      </c>
+      <c r="O16">
+        <v>0.001176193271648315</v>
+      </c>
+      <c r="P16">
+        <v>0.001176193271648314</v>
+      </c>
+      <c r="Q16">
+        <v>3.105394083346</v>
+      </c>
+      <c r="R16">
+        <v>27.948546750114</v>
+      </c>
+      <c r="S16">
+        <v>0.0001732705703109158</v>
+      </c>
+      <c r="T16">
+        <v>0.0001732705703109158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>61.180387</v>
+      </c>
+      <c r="H17">
+        <v>183.541161</v>
+      </c>
+      <c r="I17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.838413</v>
+      </c>
+      <c r="N17">
+        <v>44.51523899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3438441532869475</v>
+      </c>
+      <c r="P17">
+        <v>0.3438441532869475</v>
+      </c>
+      <c r="Q17">
+        <v>907.8198498058308</v>
+      </c>
+      <c r="R17">
+        <v>8170.378648252477</v>
+      </c>
+      <c r="S17">
+        <v>0.05065330160800083</v>
+      </c>
+      <c r="T17">
+        <v>0.05065330160800084</v>
       </c>
     </row>
   </sheetData>
